--- a/Semana 2-6 de noviembre/Stand_Up_Meeitng_Week_11.xlsx
+++ b/Semana 2-6 de noviembre/Stand_Up_Meeitng_Week_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 2-6 de noviembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4CD26E-74A0-405A-A147-A6C2E5573A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA6EA2D-6B05-4F8F-8612-EE7BDCF69913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="450" windowWidth="11790" windowHeight="9470" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -104,6 +104,27 @@
   </si>
   <si>
     <t>SEMANA 11</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Detalles entregable y coherencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nada </t>
+  </si>
+  <si>
+    <t>Verificar lista requisitos</t>
+  </si>
+  <si>
+    <t>Reunion para revision de trabajo</t>
+  </si>
+  <si>
+    <t>Reunion revision entregables</t>
+  </si>
+  <si>
+    <t>Terminar diagramas faltantes</t>
   </si>
 </sst>
 </file>
@@ -719,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,10 +749,10 @@
     <col min="1" max="1" width="26.453125" customWidth="1"/>
     <col min="2" max="2" width="24.36328125" customWidth="1"/>
     <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" customWidth="1"/>
     <col min="9" max="9" width="13.26953125" customWidth="1"/>
     <col min="10" max="10" width="10.81640625" customWidth="1"/>
@@ -805,33 +826,63 @@
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
@@ -840,33 +891,63 @@
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">

--- a/Semana 2-6 de noviembre/Stand_Up_Meeitng_Week_11.xlsx
+++ b/Semana 2-6 de noviembre/Stand_Up_Meeitng_Week_11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 2-6 de noviembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 2-6 de noviembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA6EA2D-6B05-4F8F-8612-EE7BDCF69913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20112C72-4030-45C5-9B55-00D6C959CDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="1020" yWindow="1956" windowWidth="21348" windowHeight="8100" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -740,29 +740,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="4.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -796,7 +796,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -842,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -863,7 +863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -884,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -907,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -928,7 +928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -973,7 +973,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -984,7 +984,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -1008,7 +1008,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -1019,40 +1019,70 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Semana 2-6 de noviembre/Stand_Up_Meeitng_Week_11.xlsx
+++ b/Semana 2-6 de noviembre/Stand_Up_Meeitng_Week_11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 2-6 de noviembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 2-6 de noviembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20112C72-4030-45C5-9B55-00D6C959CDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED9F9DF-D16D-4B6D-9DAE-70C424E94622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1956" windowWidth="21348" windowHeight="8100" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="16536" windowHeight="8832" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>Terminar diagramas faltantes</t>
+  </si>
+  <si>
+    <t>Se cumple lo propuesto</t>
+  </si>
+  <si>
+    <t>Se corrigen detalles del entregable y se verifica coherencia en mapas</t>
+  </si>
+  <si>
+    <t>Se asiste a la reunion para la revisión de avances en el trabajo</t>
+  </si>
+  <si>
+    <t>Se asiste a la reunion de revisión entregables</t>
+  </si>
+  <si>
+    <t>No se programo la asesoria</t>
   </si>
 </sst>
 </file>
@@ -366,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -418,6 +433,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +762,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,33 +1012,63 @@
       <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
